--- a/tournament_init.xlsx
+++ b/tournament_init.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>Pos</t>
   </si>
@@ -370,12 +370,6 @@
   </si>
   <si>
     <t>Conrad</t>
-  </si>
-  <si>
-    <t>odd</t>
-  </si>
-  <si>
-    <t>player</t>
   </si>
 </sst>
 </file>
@@ -383,19 +377,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -452,34 +440,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -786,763 +768,751 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="6">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="6">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="6">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="6">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="6">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="8"/>
+      <c r="D52" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="6">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="6">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="8"/>
+      <c r="D56" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="6">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="6">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="6">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="6">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="6">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="6">
-        <v>60</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="8"/>
+      <c r="D61" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1560,14 +1530,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1580,13 +1550,13 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1612,17 +1582,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
